--- a/model_chromatogram/compounds/compounds.xlsx
+++ b/model_chromatogram/compounds/compounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Documents/GitHub/model_chromatogram/model_chromatogram/compounds/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesklimavicz/Documents/GitHub/model_chromatogram/model_chromatogram/compounds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1E0FF0-8CA2-B943-95A0-66A060A52114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E36AD7-6633-6241-9461-DD4E51C51A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" xr2:uid="{D2ACA249-26A2-8F4C-B1D5-A4DA0C747387}"/>
+    <workbookView xWindow="120" yWindow="5800" windowWidth="29400" windowHeight="18360" xr2:uid="{D2ACA249-26A2-8F4C-B1D5-A4DA0C747387}"/>
   </bookViews>
   <sheets>
     <sheet name="compounds" sheetId="1" r:id="rId1"/>
@@ -3560,9 +3560,6 @@
     <t>C7H6O2</t>
   </si>
   <si>
-    <t>C8F4O4--</t>
-  </si>
-  <si>
     <t>C13H8Cl3N3O</t>
   </si>
   <si>
@@ -4632,6 +4629,9 @@
   </si>
   <si>
     <t>4.92</t>
+  </si>
+  <si>
+    <t>C8F4O4H2</t>
   </si>
 </sst>
 </file>
@@ -5512,8 +5512,8 @@
   <dimension ref="A1:P303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5568,10 +5568,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>
@@ -5618,10 +5618,10 @@
         <v>177.24</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>1310</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
@@ -5629,10 +5629,10 @@
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>946</v>
@@ -5712,10 +5712,10 @@
         <v>159.51</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>1312</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -5762,7 +5762,7 @@
         <v>130.83000000000001</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="O5" s="1">
         <v>3.59</v>
@@ -5773,10 +5773,10 @@
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>950</v>
@@ -5817,10 +5817,10 @@
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B7" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>944</v>
@@ -5900,18 +5900,18 @@
         <v>113.52</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B9" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>947</v>
@@ -5996,10 +5996,10 @@
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B11" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>922</v>
@@ -6032,15 +6032,15 @@
         <v>91.67</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>908</v>
@@ -6073,7 +6073,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6117,24 +6117,24 @@
         <v>139.54</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>964</v>
       </c>
       <c r="D14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E14">
         <v>168.11</v>
@@ -6161,7 +6161,7 @@
         <v>114.37</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="O14" s="1">
         <v>-1.42</v>
@@ -6169,10 +6169,10 @@
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>933</v>
@@ -6205,7 +6205,7 @@
         <v>104.55</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O15" s="1">
         <v>1.28</v>
@@ -6252,7 +6252,7 @@
         <v>100.45</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O16" s="1">
         <v>0.55000000000000004</v>
@@ -6263,7 +6263,7 @@
         <v>994</v>
       </c>
       <c r="B17" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>934</v>
@@ -6296,21 +6296,21 @@
         <v>90.29</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B18" t="s">
         <v>1254</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1255</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>965</v>
       </c>
       <c r="D18" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E18">
         <v>111.1</v>
@@ -6384,7 +6384,7 @@
         <v>83.55</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="O19" s="1">
         <v>9.19</v>
@@ -6434,15 +6434,15 @@
         <v>13.06</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B21" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>891</v>
@@ -6475,7 +6475,7 @@
         <v>24.06</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -6522,7 +6522,7 @@
         <v>-2.98</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -6566,10 +6566,10 @@
         <v>65.72</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -6616,7 +6616,7 @@
         <v>7.02</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -6627,7 +6627,7 @@
         <v>967</v>
       </c>
       <c r="D25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E25">
         <v>236.23</v>
@@ -6654,15 +6654,15 @@
         <v>82.35</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B26" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>959</v>
@@ -6703,7 +6703,7 @@
         <v>992</v>
       </c>
       <c r="B27" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>920</v>
@@ -6736,15 +6736,15 @@
         <v>20.309999999999999</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B28" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>936</v>
@@ -6777,7 +6777,7 @@
         <v>51.8</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -6824,7 +6824,7 @@
         <v>10.99</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -6868,10 +6868,10 @@
         <v>81.16</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -6918,7 +6918,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -6965,7 +6965,7 @@
         <v>5.6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -7009,7 +7009,7 @@
         <v>61.82</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="P33" t="s">
         <v>19</v>
@@ -7053,7 +7053,7 @@
         <v>1.71</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -7100,7 +7100,7 @@
         <v>2.54</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="P35" t="s">
         <v>19</v>
@@ -7111,7 +7111,7 @@
         <v>991</v>
       </c>
       <c r="B36" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>919</v>
@@ -7147,7 +7147,7 @@
         <v>13.4</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -7194,7 +7194,7 @@
         <v>9.7899999999999991</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -7235,7 +7235,7 @@
         <v>10.02</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -7317,10 +7317,10 @@
         <v>67.760000000000005</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -7358,21 +7358,21 @@
         <v>34.69</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B42" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>970</v>
       </c>
       <c r="D42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E42">
         <v>94.5</v>
@@ -7404,10 +7404,10 @@
     </row>
     <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B43" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>901</v>
@@ -7443,7 +7443,7 @@
         <v>-3.51</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -7492,10 +7492,10 @@
     </row>
     <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B45" t="s">
         <v>1284</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1285</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>938</v>
@@ -7577,10 +7577,10 @@
     </row>
     <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>884</v>
@@ -7692,15 +7692,15 @@
         <v>11.03</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B50" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>887</v>
@@ -7738,10 +7738,10 @@
     </row>
     <row r="51" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B51" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>907</v>
@@ -7779,10 +7779,10 @@
     </row>
     <row r="52" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B52" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>935</v>
@@ -7820,16 +7820,16 @@
     </row>
     <row r="53" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B53" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>982</v>
       </c>
       <c r="D53" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E53">
         <v>98.1</v>
@@ -7861,16 +7861,16 @@
     </row>
     <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B54" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>981</v>
       </c>
       <c r="D54" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E54">
         <v>100.14</v>
@@ -7897,7 +7897,7 @@
         <v>67.150000000000006</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -7944,15 +7944,15 @@
         <v>12.37</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B56" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>904</v>
@@ -7990,16 +7990,16 @@
     </row>
     <row r="57" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B57" t="s">
         <v>1233</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1234</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>983</v>
       </c>
       <c r="D57" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E57">
         <v>96.08</v>
@@ -8028,10 +8028,10 @@
     </row>
     <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B58" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>896</v>
@@ -8067,15 +8067,15 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B59" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>956</v>
@@ -8146,18 +8146,18 @@
         <v>82.78</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B61" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>905</v>
@@ -8190,15 +8190,15 @@
         <v>12.03</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B62" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>931</v>
@@ -8234,7 +8234,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -8278,7 +8278,7 @@
         <v>58.69</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -8322,18 +8322,18 @@
         <v>98.99</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B65" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>975</v>
@@ -8366,15 +8366,15 @@
         <v>74.599999999999994</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B66" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>957</v>
@@ -8407,21 +8407,21 @@
         <v>40.46</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B67" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>978</v>
       </c>
       <c r="D67" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E67">
         <v>119.12</v>
@@ -8451,7 +8451,7 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -8498,7 +8498,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="P68" t="s">
         <v>19</v>
@@ -8550,10 +8550,10 @@
     </row>
     <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B70" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>929</v>
@@ -8624,7 +8624,7 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -8662,21 +8662,21 @@
         <v>47.58</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B73" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>972</v>
       </c>
       <c r="D73" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E73">
         <v>154.56</v>
@@ -8706,15 +8706,15 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B74" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>899</v>
@@ -8747,7 +8747,7 @@
         <v>40.46</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -8791,7 +8791,7 @@
         <v>66.760000000000005</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -8840,10 +8840,10 @@
     </row>
     <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B77" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>898</v>
@@ -9001,16 +9001,16 @@
     </row>
     <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B81" t="s">
         <v>1231</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1232</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>984</v>
       </c>
       <c r="D81" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E81">
         <v>138.12</v>
@@ -9037,15 +9037,15 @@
         <v>57.53</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B82" t="s">
         <v>1221</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1222</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>903</v>
@@ -9078,7 +9078,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -9166,15 +9166,15 @@
         <v>52.95</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B85" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>883</v>
@@ -9207,12 +9207,12 @@
         <v>74.599999999999994</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>902</v>
@@ -9245,15 +9245,15 @@
         <v>71.84</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B87" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>945</v>
@@ -9289,7 +9289,7 @@
         <v>7.41</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -9338,7 +9338,7 @@
     </row>
     <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>924</v>
@@ -9415,7 +9415,7 @@
         <v>10.23</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -9462,7 +9462,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -9509,21 +9509,21 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B93" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>963</v>
       </c>
       <c r="D93" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E93">
         <v>138.12</v>
@@ -9550,7 +9550,7 @@
         <v>57.53</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -9602,10 +9602,10 @@
     </row>
     <row r="95" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B95" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>918</v>
@@ -9684,7 +9684,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>939</v>
@@ -9878,7 +9878,7 @@
         <v>4.76</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -9925,7 +9925,7 @@
         <v>5.74</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -10013,7 +10013,7 @@
         <v>49.69</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -10057,7 +10057,7 @@
         <v>29.1</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -10185,10 +10185,10 @@
     </row>
     <row r="109" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B109" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>889</v>
@@ -10223,10 +10223,10 @@
     </row>
     <row r="110" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B110" t="s">
         <v>1201</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1202</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>886</v>
@@ -10264,10 +10264,10 @@
     </row>
     <row r="111" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>892</v>
@@ -10337,10 +10337,10 @@
     </row>
     <row r="113" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B113" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>960</v>
@@ -10378,10 +10378,10 @@
     </row>
     <row r="114" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B114" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>937</v>
@@ -10417,21 +10417,21 @@
         <v>12.25</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B115" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>961</v>
       </c>
       <c r="D115" t="s">
-        <v>1174</v>
+        <v>1527</v>
       </c>
       <c r="E115">
         <v>236.08</v>
@@ -10458,7 +10458,7 @@
         <v>80.260000000000005</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
@@ -10590,7 +10590,7 @@
         <v>70.16</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
@@ -10710,7 +10710,7 @@
         <v>68.540000000000006</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
@@ -10754,7 +10754,7 @@
         <v>26.93</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="P122" t="s">
         <v>19</v>
@@ -10850,7 +10850,7 @@
         <v>298</v>
       </c>
       <c r="D125" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E125">
         <v>275.22000000000003</v>
@@ -10859,7 +10859,7 @@
         <v>697</v>
       </c>
       <c r="G125" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H125">
         <v>1.18</v>
@@ -10883,15 +10883,15 @@
         <v>9.9</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B126" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>900</v>
@@ -10927,7 +10927,7 @@
         <v>13.63</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
@@ -11023,7 +11023,7 @@
         <v>314</v>
       </c>
       <c r="D129" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E129">
         <v>245.28</v>
@@ -11032,7 +11032,7 @@
         <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H129">
         <v>1.07</v>
@@ -11056,12 +11056,12 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>890</v>
@@ -11222,10 +11222,10 @@
     </row>
     <row r="134" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B134" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>932</v>
@@ -11390,7 +11390,7 @@
         <v>12.89</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -11519,7 +11519,7 @@
         <v>25.78</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="P140" t="s">
         <v>19</v>
@@ -11642,10 +11642,10 @@
         <v>101.13</v>
       </c>
       <c r="N143" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="O143" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="O143" s="1" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
@@ -11683,10 +11683,10 @@
         <v>46.26</v>
       </c>
       <c r="N144" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="O144" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
@@ -11709,7 +11709,7 @@
         <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H145">
         <v>1.31</v>
@@ -11730,7 +11730,7 @@
         <v>70.98</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
@@ -11812,7 +11812,7 @@
         <v>51.47</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -11856,15 +11856,15 @@
         <v>94.83</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B149" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>895</v>
@@ -11897,7 +11897,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
@@ -11941,7 +11941,7 @@
         <v>59.16</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -11985,15 +11985,15 @@
         <v>82.28</v>
       </c>
       <c r="N151" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O151" s="1" t="s">
         <v>1405</v>
-      </c>
-      <c r="O151" s="1" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>925</v>
@@ -12026,15 +12026,15 @@
         <v>62.98</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B153" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>930</v>
@@ -12067,7 +12067,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
@@ -12111,21 +12111,21 @@
         <v>57.53</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B155" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>980</v>
       </c>
       <c r="D155" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E155">
         <v>128.56</v>
@@ -12152,7 +12152,7 @@
         <v>20.23</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
@@ -12231,15 +12231,15 @@
         <v>84.22</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B158" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>916</v>
@@ -12313,18 +12313,18 @@
         <v>61.58</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>977</v>
       </c>
       <c r="D160" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E160">
         <v>256.70999999999998</v>
@@ -12351,10 +12351,10 @@
         <v>66.91</v>
       </c>
       <c r="N160" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="O160" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
@@ -12394,10 +12394,10 @@
     </row>
     <row r="162" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B162" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>949</v>
@@ -12430,7 +12430,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
@@ -12512,7 +12512,7 @@
         <v>89.16</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -12553,7 +12553,7 @@
         <v>25.78</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
@@ -12597,7 +12597,7 @@
         <v>82.79</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
@@ -12641,7 +12641,7 @@
         <v>30.21</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
@@ -12699,7 +12699,7 @@
         <v>230.26</v>
       </c>
       <c r="G169" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H169">
         <v>2.2599999999999998</v>
@@ -12720,10 +12720,10 @@
         <v>54.18</v>
       </c>
       <c r="N169" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="O169" s="1" t="s">
         <v>1420</v>
-      </c>
-      <c r="O169" s="1" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
@@ -12764,7 +12764,7 @@
         <v>29.46</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
@@ -12805,7 +12805,7 @@
         <v>29.46</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
@@ -12849,7 +12849,7 @@
         <v>41.13</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="P172" t="s">
         <v>19</v>
@@ -12896,27 +12896,27 @@
         <v>46.53</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B174" t="s">
         <v>1250</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1251</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>969</v>
       </c>
       <c r="D174" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E174">
         <v>197.23</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H174">
         <v>2.88</v>
@@ -12937,10 +12937,10 @@
         <v>32.590000000000003</v>
       </c>
       <c r="N174" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O174" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="O174" s="1" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
@@ -12984,10 +12984,10 @@
         <v>81.28</v>
       </c>
       <c r="N175" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="O175" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="O175" s="1" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
@@ -13066,10 +13066,10 @@
         <v>37.380000000000003</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="P177" t="s">
         <v>19</v>
@@ -13116,7 +13116,7 @@
         <v>26.02</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
@@ -13236,7 +13236,7 @@
         <v>76.03</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
@@ -13282,7 +13282,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>910</v>
@@ -13317,13 +13317,13 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>979</v>
       </c>
       <c r="D184" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E184">
         <v>184.65</v>
@@ -13350,12 +13350,12 @@
         <v>67.150000000000006</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>940</v>
@@ -13388,12 +13388,12 @@
         <v>42.24</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>917</v>
@@ -13426,15 +13426,15 @@
         <v>41.46</v>
       </c>
       <c r="N186" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="O186" s="1" t="s">
         <v>1436</v>
-      </c>
-      <c r="O186" s="1" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>885</v>
@@ -13467,7 +13467,7 @@
         <v>38.35</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
@@ -13511,7 +13511,7 @@
         <v>45.31</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -13555,7 +13555,7 @@
         <v>3.24</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
@@ -13593,7 +13593,7 @@
         <v>34.14</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
@@ -13672,10 +13672,10 @@
         <v>49.33</v>
       </c>
       <c r="N192" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O192" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="O192" s="1" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
@@ -13719,10 +13719,10 @@
         <v>32.340000000000003</v>
       </c>
       <c r="N193" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="O193" s="1" t="s">
         <v>1443</v>
-      </c>
-      <c r="O193" s="1" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
@@ -13807,7 +13807,7 @@
         <v>3.24</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
@@ -13851,7 +13851,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
@@ -13929,10 +13929,10 @@
     </row>
     <row r="199" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B199" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>948</v>
@@ -13965,7 +13965,7 @@
         <v>20.23</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
@@ -14044,7 +14044,7 @@
         <v>30.19</v>
       </c>
       <c r="O201" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
@@ -14088,10 +14088,10 @@
         <v>54.7</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="P202" t="s">
         <v>19</v>
@@ -14173,10 +14173,10 @@
         <v>98.8</v>
       </c>
       <c r="N204" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="O204" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="O204" s="1" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -14184,7 +14184,7 @@
         <v>985</v>
       </c>
       <c r="B205" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>897</v>
@@ -14217,10 +14217,10 @@
         <v>26.71</v>
       </c>
       <c r="N205" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="O205" s="1" t="s">
         <v>1453</v>
-      </c>
-      <c r="O205" s="1" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
@@ -14264,7 +14264,7 @@
         <v>89.28</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
@@ -14308,15 +14308,15 @@
         <v>50.44</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>941</v>
@@ -14349,7 +14349,7 @@
         <v>45.14</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.2">
@@ -14434,10 +14434,10 @@
         <v>41.46</v>
       </c>
       <c r="N210" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O210" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="O210" s="1" t="s">
-        <v>1460</v>
       </c>
       <c r="P210" t="s">
         <v>19</v>
@@ -14484,10 +14484,10 @@
         <v>45.59</v>
       </c>
       <c r="N211" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O211" s="1" t="s">
         <v>1461</v>
-      </c>
-      <c r="O211" s="1" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
@@ -14613,7 +14613,7 @@
         <v>46.53</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.2">
@@ -14657,10 +14657,10 @@
         <v>50.44</v>
       </c>
       <c r="N215" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O215" s="1" t="s">
         <v>1464</v>
-      </c>
-      <c r="O215" s="1" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
@@ -14786,10 +14786,10 @@
         <v>48.19</v>
       </c>
       <c r="N218" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="O218" s="1" t="s">
         <v>1466</v>
-      </c>
-      <c r="O218" s="1" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.2">
@@ -14833,10 +14833,10 @@
         <v>33.119999999999997</v>
       </c>
       <c r="N219" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O219" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="O219" s="1" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
@@ -14961,13 +14961,13 @@
         <v>1003</v>
       </c>
       <c r="B223" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>976</v>
       </c>
       <c r="D223" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E223">
         <v>268.35000000000002</v>
@@ -14994,7 +14994,7 @@
         <v>23.55</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
         <v>25.78</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.2">
@@ -15120,10 +15120,10 @@
         <v>50.44</v>
       </c>
       <c r="N226" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="O226" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="O226" s="1" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.2">
@@ -15161,7 +15161,7 @@
         <v>48.15</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.2">
@@ -15284,7 +15284,7 @@
         <v>30.21</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
@@ -15328,7 +15328,7 @@
         <v>39.44</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
@@ -15372,7 +15372,7 @@
         <v>89.9</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="17" x14ac:dyDescent="0.25">
@@ -15380,7 +15380,7 @@
         <v>989</v>
       </c>
       <c r="B233" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>914</v>
@@ -15413,21 +15413,21 @@
         <v>12.03</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B234" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>966</v>
       </c>
       <c r="D234" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E234">
         <v>188.27</v>
@@ -15456,13 +15456,13 @@
     </row>
     <row r="235" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>971</v>
       </c>
       <c r="D235" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E235">
         <v>232.66</v>
@@ -15489,12 +15489,12 @@
         <v>37.299999999999997</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="236" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>893</v>
@@ -15527,7 +15527,7 @@
         <v>20.23</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
         <v>39.44</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.2">
@@ -15612,21 +15612,21 @@
         <v>20.23</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B239" t="s">
         <v>1243</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1244</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>974</v>
       </c>
       <c r="D239" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E239">
         <v>247.89</v>
@@ -15653,7 +15653,7 @@
         <v>40.46</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
@@ -15691,7 +15691,7 @@
         <v>38.659999999999997</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.2">
@@ -15767,10 +15767,10 @@
         <v>54.18</v>
       </c>
       <c r="N242" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="O242" s="1" t="s">
         <v>1483</v>
-      </c>
-      <c r="O242" s="1" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.2">
@@ -15808,7 +15808,7 @@
         <v>30.82</v>
       </c>
       <c r="O243" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -15852,7 +15852,7 @@
         <v>26.88</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="P244" t="s">
         <v>19</v>
@@ -15899,7 +15899,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="O245" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.2">
@@ -15943,7 +15943,7 @@
         <v>34.369999999999997</v>
       </c>
       <c r="O246" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.2">
@@ -15989,7 +15989,7 @@
         <v>986</v>
       </c>
       <c r="B248" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>909</v>
@@ -16063,10 +16063,10 @@
         <v>29.1</v>
       </c>
       <c r="N249" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="O249" s="1" t="s">
         <v>1488</v>
-      </c>
-      <c r="O249" s="1" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.2">
@@ -16104,18 +16104,18 @@
         <v>70.25</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>962</v>
       </c>
       <c r="D251" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E251">
         <v>328.58</v>
@@ -16142,10 +16142,10 @@
         <v>61.27</v>
       </c>
       <c r="N251" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="O251" s="1" t="s">
         <v>1491</v>
-      </c>
-      <c r="O251" s="1" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -16227,10 +16227,10 @@
         <v>52.82</v>
       </c>
       <c r="N253" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O253" s="1" t="s">
         <v>1493</v>
-      </c>
-      <c r="O253" s="1" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.2">
@@ -16312,7 +16312,7 @@
         <v>48.85</v>
       </c>
       <c r="O255" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.2">
@@ -16356,7 +16356,7 @@
         <v>15.6</v>
       </c>
       <c r="O256" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.2">
@@ -16435,7 +16435,7 @@
         <v>73.08</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.2">
@@ -16514,15 +16514,15 @@
         <v>70.56</v>
       </c>
       <c r="N260" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="O260" s="1" t="s">
         <v>1498</v>
-      </c>
-      <c r="O260" s="1" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="261" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>894</v>
@@ -16557,7 +16557,7 @@
     </row>
     <row r="262" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>888</v>
@@ -16592,16 +16592,16 @@
     </row>
     <row r="263" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B263" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>968</v>
       </c>
       <c r="D263" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E263">
         <v>243.39</v>
@@ -16628,7 +16628,7 @@
         <v>3.24</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.2">
@@ -16710,10 +16710,10 @@
         <v>121.46</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="O265" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.2">
@@ -16792,10 +16792,10 @@
         <v>113.39</v>
       </c>
       <c r="N267" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O267" s="1" t="s">
         <v>1502</v>
-      </c>
-      <c r="O267" s="1" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
@@ -16839,7 +16839,7 @@
         <v>124</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.2">
@@ -16883,7 +16883,7 @@
         <v>28.16</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="P269" t="s">
         <v>19</v>
@@ -16965,7 +16965,7 @@
         <v>40.46</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.2">
@@ -17003,18 +17003,18 @@
         <v>73.489999999999995</v>
       </c>
       <c r="N272" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="O272" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="O272" s="1" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="273" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B273" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>973</v>
@@ -17058,7 +17058,7 @@
         <v>794</v>
       </c>
       <c r="D274" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E274">
         <v>521.25</v>
@@ -17067,7 +17067,7 @@
         <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H274">
         <v>3.67</v>
@@ -17088,7 +17088,7 @@
         <v>29.54</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.2">
@@ -17132,7 +17132,7 @@
         <v>41.28</v>
       </c>
       <c r="O275" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="P275" t="s">
         <v>19</v>
@@ -17179,10 +17179,10 @@
         <v>185.84</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="O276" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="P276" t="s">
         <v>19</v>
@@ -17261,10 +17261,10 @@
         <v>69.89</v>
       </c>
       <c r="N278" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="O278" s="1" t="s">
         <v>1512</v>
-      </c>
-      <c r="O278" s="1" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
@@ -17308,12 +17308,12 @@
         <v>3.24</v>
       </c>
       <c r="O279" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>906</v>
@@ -17387,7 +17387,7 @@
         <v>35.020000000000003</v>
       </c>
       <c r="O281" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.2">
@@ -17466,7 +17466,7 @@
         <v>20.23</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.2">
@@ -17515,7 +17515,7 @@
     </row>
     <row r="285" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>913</v>
@@ -17589,7 +17589,7 @@
         <v>18.46</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.2">
@@ -17633,18 +17633,18 @@
         <v>58.34</v>
       </c>
       <c r="N287" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="O287" s="1" t="s">
         <v>1518</v>
-      </c>
-      <c r="O287" s="1" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B288" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>928</v>
@@ -17714,7 +17714,7 @@
     </row>
     <row r="290" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>921</v>
@@ -17788,7 +17788,7 @@
         <v>37.39</v>
       </c>
       <c r="O291" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
@@ -17873,10 +17873,10 @@
         <v>32.590000000000003</v>
       </c>
       <c r="N293" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O293" s="1" t="s">
         <v>1521</v>
-      </c>
-      <c r="O293" s="1" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
@@ -17920,7 +17920,7 @@
         <v>20.23</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
@@ -17964,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="P295" t="s">
         <v>19</v>
@@ -18101,10 +18101,10 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B299" t="s">
         <v>1270</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1271</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>927</v>
@@ -18175,7 +18175,7 @@
         <v>26.88</v>
       </c>
       <c r="O300" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
@@ -18216,7 +18216,7 @@
         <v>13.59</v>
       </c>
       <c r="O301" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
@@ -18256,10 +18256,10 @@
     </row>
     <row r="303" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B303" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>926</v>
@@ -18271,7 +18271,7 @@
         <v>869.18</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H303">
         <v>8.7799999999999994</v>
